--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.14_Student_Input_Left_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.14_Student_Input_Left_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4F63D-FBB8-4735-9D94-8874E719F7AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F44DEDE-772F-4C63-B3A0-2B0B3FCC25C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +550,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43651</v>
+        <v>43648</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>250</v>
@@ -561,222 +561,222 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43652</v>
+        <v>43651</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3">
-        <v>450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43654</v>
+        <v>43652</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43659</v>
+        <v>43654</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43660</v>
+        <v>43659</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43663</v>
+        <v>43660</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43666</v>
+        <v>43663</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3">
-        <v>750</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43668</v>
+        <v>43666</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>20</v>
+        <v>750</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3">
-        <v>20</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43670</v>
+        <v>43668</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>3800</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3">
-        <v>3800</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43671</v>
+        <v>43670</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
-        <v>145</v>
+        <v>3800</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43671</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
         <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>43673</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3">
-        <v>600</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -787,55 +787,57 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>43673</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>43677</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4050</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43677</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
         <v>4050</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1200</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>1200</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,18 +846,18 @@
         <v>14</v>
       </c>
       <c r="C29" s="3">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>450</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,18 +866,18 @@
         <v>14</v>
       </c>
       <c r="C31" s="3">
-        <v>145</v>
+        <v>450</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>145</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,18 +886,18 @@
         <v>14</v>
       </c>
       <c r="C33" s="3">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,17 +906,37 @@
         <v>14</v>
       </c>
       <c r="C35" s="3">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
         <v>700</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8" t="s">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="3">
         <v>700</v>
       </c>
     </row>
